--- a/内部発熱.xlsx
+++ b/内部発熱.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\☆研究とりまとめ\04 暖冷房設備\02 ダクト式セントラル空調機\19.03.ダクト式セントラル空調の評価変更\duct_type_central_hc_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D9AE5D-9DE2-4B91-BAA9-6BC94A46921D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DB814F-8F6F-41C6-8C61-FA36838E6C1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" activeTab="3" xr2:uid="{D0178DA3-3258-4AB0-A8FF-A70145633C10}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" activeTab="2" xr2:uid="{D0178DA3-3258-4AB0-A8FF-A70145633C10}"/>
   </bookViews>
   <sheets>
     <sheet name="集計表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="74">
   <si>
     <t>平日</t>
   </si>
@@ -462,6 +462,41 @@
     <t>ND</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kJ/kg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気温27℃時の水の蒸発潜熱, kJ/kg</t>
+    <rPh sb="0" eb="2">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウハツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センネツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g/s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g/h</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -469,9 +504,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="184" formatCode="m/d"/>
-    <numFmt numFmtId="185" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="m/d"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -569,16 +604,16 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1813,83 +1848,83 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <f>AE6*AE$5/100</f>
+        <f t="shared" ref="AZ6:BS6" si="0">AE6*AE$5/100</f>
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <f>AF6*AF$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BB6" s="2">
-        <f>AG6*AG$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <f>AH6*AH$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <f>AI6*AI$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <f>AJ6*AJ$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <f>AK6*AK$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BG6" s="2">
-        <f>AL6*AL$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BH6" s="2">
-        <f>AM6*AM$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BI6" s="2">
-        <f>AN6*AN$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BJ6" s="2">
-        <f>AO6*AO$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BK6" s="2">
-        <f>AP6*AP$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BL6" s="2">
-        <f>AQ6*AQ$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BM6" s="2">
-        <f>AR6*AR$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <f>AS6*AS$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BO6" s="2">
-        <f>AT6*AT$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BP6" s="2">
-        <f>AU6*AU$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BQ6" s="2">
-        <f>AV6*AV$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <f>AW6*AW$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <f>AX6*AX$5/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BU6" s="2">
@@ -1911,22 +1946,22 @@
         <v>0</v>
       </c>
       <c r="CB6" s="6">
-        <f>B6</f>
+        <f t="shared" ref="CB6:CB29" si="1">B6</f>
         <v>0</v>
       </c>
       <c r="CC6" s="6">
-        <f>C6+D6+E6</f>
+        <f t="shared" ref="CC6:CC29" si="2">C6+D6+E6</f>
         <v>4</v>
       </c>
       <c r="CD6" s="6">
         <v>0</v>
       </c>
       <c r="CE6" s="6">
-        <f>F6</f>
+        <f t="shared" ref="CE6:CE29" si="3">F6</f>
         <v>0</v>
       </c>
       <c r="CF6" s="6">
-        <f>G6+H6+I6</f>
+        <f t="shared" ref="CF6:CF29" si="4">G6+H6+I6</f>
         <v>4</v>
       </c>
       <c r="CG6" s="6">
@@ -2143,120 +2178,120 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <f t="shared" ref="AZ7:BK29" si="0">AE7*AE$5/100</f>
+        <f t="shared" ref="AZ7:BK29" si="5">AE7*AE$5/100</f>
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BL7" s="2">
-        <f t="shared" ref="BL7:BS29" si="1">AQ7*AQ$5/100</f>
+        <f t="shared" ref="BL7:BS29" si="6">AQ7*AQ$5/100</f>
         <v>0</v>
       </c>
       <c r="BM7" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BN7" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BO7" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BP7" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BR7" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BS7" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BN7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BO7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BP7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BR7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="6">
-        <f>B7</f>
-        <v>0</v>
-      </c>
       <c r="CC7" s="6">
-        <f>C7+D7+E7</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="CD7" s="6">
         <v>0</v>
       </c>
       <c r="CE7" s="6">
-        <f>F7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CF7" s="6">
-        <f>G7+H7+I7</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="CG7" s="6">
@@ -2264,31 +2299,31 @@
       </c>
       <c r="CH7" s="6"/>
       <c r="CI7" s="2">
-        <f t="shared" ref="CI7:CI29" si="2">ROUND(K7+L7+M7+BA7+BB7,1)</f>
+        <f t="shared" ref="CI7:CI29" si="7">ROUND(K7+L7+M7+BA7+BB7,1)</f>
         <v>66.900000000000006</v>
       </c>
       <c r="CJ7" s="2">
-        <f t="shared" ref="CJ7:CJ29" si="3">ROUND(P7+Q7+R7+BG7+BH7+BI7,1)</f>
+        <f t="shared" ref="CJ7:CJ29" si="8">ROUND(P7+Q7+R7+BG7+BH7+BI7,1)</f>
         <v>18</v>
       </c>
       <c r="CK7" s="2">
-        <f t="shared" ref="CK7:CK29" si="4">ROUND(N7+O7+AZ7+BC7+BD7+BE7+BF7,1)</f>
+        <f t="shared" ref="CK7:CK29" si="9">ROUND(N7+O7+AZ7+BC7+BD7+BE7+BF7,1)</f>
         <v>41.5</v>
       </c>
       <c r="CL7" s="2">
-        <f t="shared" ref="CL7:CL29" si="5">ROUND(S7+T7+U7+BK7+BL7,1)</f>
+        <f t="shared" ref="CL7:CL29" si="10">ROUND(S7+T7+U7+BK7+BL7,1)</f>
         <v>66.900000000000006</v>
       </c>
       <c r="CM7" s="2">
-        <f t="shared" ref="CM7:CM29" si="6">ROUND(X7+Y7+Z7+BQ7+BR7+BS7,1)</f>
+        <f t="shared" ref="CM7:CM29" si="11">ROUND(X7+Y7+Z7+BQ7+BR7+BS7,1)</f>
         <v>18</v>
       </c>
       <c r="CN7" s="2">
-        <f t="shared" ref="CN7:CN29" si="7">ROUND(V7+W7+BJ7+BM7+BN7+BO7+BP7,1)</f>
+        <f t="shared" ref="CN7:CN29" si="12">ROUND(V7+W7+BJ7+BM7+BN7+BO7+BP7,1)</f>
         <v>41.5</v>
       </c>
       <c r="CP7" s="2">
-        <f t="shared" ref="CP7:CP29" si="8">AB7</f>
+        <f t="shared" ref="CP7:CP29" si="13">AB7</f>
         <v>0</v>
       </c>
       <c r="CQ7" s="2">
@@ -2298,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="CS7" s="2">
-        <f t="shared" ref="CS7:CS29" si="9">AC7</f>
+        <f t="shared" ref="CS7:CS29" si="14">AC7</f>
         <v>0</v>
       </c>
       <c r="CT7" s="2">
@@ -2308,25 +2343,25 @@
         <v>0</v>
       </c>
       <c r="CW7" s="9">
-        <f t="shared" ref="CW7:CW29" si="10">BU7</f>
+        <f t="shared" ref="CW7:CW29" si="15">BU7</f>
         <v>0</v>
       </c>
       <c r="CX7" s="9">
         <v>0</v>
       </c>
       <c r="CY7" s="9">
-        <f t="shared" ref="CY7:CY29" si="11">BV7+BW7</f>
+        <f t="shared" ref="CY7:CY29" si="16">BV7+BW7</f>
         <v>0</v>
       </c>
       <c r="CZ7" s="9">
-        <f t="shared" ref="CZ7:CZ29" si="12">BX7</f>
+        <f t="shared" ref="CZ7:CZ29" si="17">BX7</f>
         <v>0</v>
       </c>
       <c r="DA7" s="9">
         <v>0</v>
       </c>
       <c r="DB7" s="9">
-        <f t="shared" ref="DB7:DB29" si="13">BY7+BZ7</f>
+        <f t="shared" ref="DB7:DB29" si="18">BY7+BZ7</f>
         <v>0</v>
       </c>
     </row>
@@ -2473,120 +2508,120 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BL8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BM8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BN8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BO8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BP8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BR8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BS8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BM8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BO8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BP8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BR8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="6">
-        <f>B8</f>
-        <v>0</v>
-      </c>
       <c r="CC8" s="6">
-        <f>C8+D8+E8</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="CD8" s="6">
         <v>0</v>
       </c>
       <c r="CE8" s="6">
-        <f>F8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CF8" s="6">
-        <f>G8+H8+I8</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="CG8" s="6">
@@ -2594,31 +2629,31 @@
       </c>
       <c r="CH8" s="6"/>
       <c r="CI8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CJ8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>41.5</v>
       </c>
       <c r="CL8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CM8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="CN8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>41.5</v>
       </c>
       <c r="CP8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ8" s="2">
@@ -2628,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="CS8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT8" s="2">
@@ -2638,25 +2673,25 @@
         <v>0</v>
       </c>
       <c r="CW8" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX8" s="9">
         <v>0</v>
       </c>
       <c r="CY8" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CZ8" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA8" s="9">
         <v>0</v>
       </c>
       <c r="DB8" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2803,120 +2838,120 @@
         <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK9" s="2">
-        <f t="shared" ref="BK9:BK29" si="14">AP9*AP$5/100</f>
+        <f t="shared" ref="BK9:BK29" si="19">AP9*AP$5/100</f>
         <v>0</v>
       </c>
       <c r="BL9" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BM9" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BN9" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BO9" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BP9" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BR9" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BS9" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BM9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BO9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BP9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BR9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="6">
-        <f>B9</f>
-        <v>0</v>
-      </c>
       <c r="CC9" s="6">
-        <f>C9+D9+E9</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="CD9" s="6">
         <v>0</v>
       </c>
       <c r="CE9" s="6">
-        <f>F9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CF9" s="6">
-        <f>G9+H9+I9</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="CG9" s="6">
@@ -2924,31 +2959,31 @@
       </c>
       <c r="CH9" s="6"/>
       <c r="CI9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CJ9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>41.5</v>
       </c>
       <c r="CL9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CM9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="CN9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>41.5</v>
       </c>
       <c r="CP9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ9" s="2">
@@ -2958,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="CS9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT9" s="2">
@@ -2968,25 +3003,25 @@
         <v>0</v>
       </c>
       <c r="CW9" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX9" s="9">
         <v>0</v>
       </c>
       <c r="CY9" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CZ9" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA9" s="9">
         <v>0</v>
       </c>
       <c r="DB9" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3133,120 +3168,120 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK10" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BL10" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BM10" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BN10" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BO10" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BP10" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BR10" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BS10" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BM10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BO10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BP10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BR10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="6">
-        <f>B10</f>
-        <v>0</v>
-      </c>
       <c r="CC10" s="6">
-        <f>C10+D10+E10</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="CD10" s="6">
         <v>0</v>
       </c>
       <c r="CE10" s="6">
-        <f>F10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CF10" s="6">
-        <f>G10+H10+I10</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="CG10" s="6">
@@ -3254,31 +3289,31 @@
       </c>
       <c r="CH10" s="6"/>
       <c r="CI10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CJ10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>41.5</v>
       </c>
       <c r="CL10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CM10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="CN10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>41.5</v>
       </c>
       <c r="CP10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ10" s="2">
@@ -3288,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="CS10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT10" s="2">
@@ -3298,25 +3333,25 @@
         <v>0</v>
       </c>
       <c r="CW10" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX10" s="9">
         <v>0</v>
       </c>
       <c r="CY10" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CZ10" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA10" s="9">
         <v>0</v>
       </c>
       <c r="DB10" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3463,120 +3498,120 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK11" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BL11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BM11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BN11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BO11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BP11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BR11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BS11" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BM11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BO11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BP11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BR11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB11" s="6">
-        <f>B11</f>
-        <v>0</v>
-      </c>
       <c r="CC11" s="6">
-        <f>C11+D11+E11</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="CD11" s="6">
         <v>0</v>
       </c>
       <c r="CE11" s="6">
-        <f>F11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CF11" s="6">
-        <f>G11+H11+I11</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="CG11" s="6">
@@ -3584,31 +3619,31 @@
       </c>
       <c r="CH11" s="6"/>
       <c r="CI11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CJ11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>41.5</v>
       </c>
       <c r="CL11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CM11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="CN11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>41.5</v>
       </c>
       <c r="CP11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ11" s="2">
@@ -3618,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="CS11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT11" s="2">
@@ -3628,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="CW11" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX11" s="9">
         <v>0</v>
       </c>
       <c r="CY11" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CZ11" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA11" s="9">
         <v>0</v>
       </c>
       <c r="DB11" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3793,83 +3828,83 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
       <c r="BA12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>22.55</v>
       </c>
       <c r="BB12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17.015249999999998</v>
       </c>
       <c r="BC12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
       <c r="BD12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.5500000000000007</v>
       </c>
       <c r="BE12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>19.019000000000002</v>
       </c>
       <c r="BF12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BL12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BN12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BO12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BP12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BR12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU12" s="2">
@@ -3891,22 +3926,22 @@
         <v>0</v>
       </c>
       <c r="CB12" s="6">
-        <f>B12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CC12" s="6">
-        <f>C12+D12+E12</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CD12" s="6">
         <v>0</v>
       </c>
       <c r="CE12" s="6">
-        <f>F12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CF12" s="6">
-        <f>G12+H12+I12</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="CG12" s="6">
@@ -3914,31 +3949,31 @@
       </c>
       <c r="CH12" s="6"/>
       <c r="CI12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>123.9</v>
       </c>
       <c r="CJ12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>126.1</v>
       </c>
       <c r="CL12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CM12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="CN12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>41.5</v>
       </c>
       <c r="CP12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="CQ12" s="2">
@@ -3948,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="CS12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT12" s="2">
@@ -3958,25 +3993,25 @@
         <v>0</v>
       </c>
       <c r="CW12" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>75</v>
       </c>
       <c r="CX12" s="9">
         <v>0</v>
       </c>
       <c r="CY12" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="CZ12" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA12" s="9">
         <v>0</v>
       </c>
       <c r="DB12" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -4123,83 +4158,83 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BA13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>97.487499999999997</v>
       </c>
       <c r="BB13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17.015249999999998</v>
       </c>
       <c r="BC13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BD13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.8471499999999996</v>
       </c>
       <c r="BE13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>37.971499999999999</v>
       </c>
       <c r="BF13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>42.75</v>
       </c>
       <c r="BK13" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BL13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>85.5</v>
       </c>
       <c r="BN13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5.7028500000000006</v>
       </c>
       <c r="BO13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>52.268999999999998</v>
       </c>
       <c r="BP13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BR13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU13" s="2">
@@ -4221,22 +4256,22 @@
         <v>0</v>
       </c>
       <c r="CB13" s="6">
-        <f>B13</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="CC13" s="6">
-        <f>C13+D13+E13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CD13" s="6">
         <v>0</v>
       </c>
       <c r="CE13" s="6">
-        <f>F13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CF13" s="6">
-        <f>G13+H13+I13</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="CG13" s="6">
@@ -4244,31 +4279,31 @@
       </c>
       <c r="CH13" s="6"/>
       <c r="CI13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>383.6</v>
       </c>
       <c r="CJ13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>249.9</v>
       </c>
       <c r="CL13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CM13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="CN13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>281.3</v>
       </c>
       <c r="CP13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ13" s="2">
@@ -4278,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="CS13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT13" s="2">
@@ -4288,25 +4323,25 @@
         <v>0</v>
       </c>
       <c r="CW13" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX13" s="9">
         <v>0</v>
       </c>
       <c r="CY13" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="CZ13" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA13" s="9">
         <v>0</v>
       </c>
       <c r="DB13" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -4453,83 +4488,83 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BA14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>52.524999999999999</v>
       </c>
       <c r="BB14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
       <c r="BD14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>15.827</v>
       </c>
       <c r="BF14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BK14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>120.03749999999999</v>
       </c>
       <c r="BL14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33.993749999999999</v>
       </c>
       <c r="BM14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>85.5</v>
       </c>
       <c r="BN14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5.7028500000000006</v>
       </c>
       <c r="BO14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>52.268999999999998</v>
       </c>
       <c r="BP14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BR14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
       <c r="BS14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU14" s="2">
@@ -4551,22 +4586,22 @@
         <v>0</v>
       </c>
       <c r="CB14" s="6">
-        <f>B14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CC14" s="6">
-        <f>C14+D14+E14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CD14" s="6">
         <v>0</v>
       </c>
       <c r="CE14" s="6">
-        <f>F14</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="CF14" s="6">
-        <f>G14+H14+I14</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="CG14" s="6">
@@ -4574,31 +4609,31 @@
       </c>
       <c r="CH14" s="6"/>
       <c r="CI14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>323.2</v>
       </c>
       <c r="CJ14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>158.30000000000001</v>
       </c>
       <c r="CL14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>440.5</v>
       </c>
       <c r="CM14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35.5</v>
       </c>
       <c r="CN14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>311</v>
       </c>
       <c r="CP14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ14" s="2">
@@ -4608,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="CS14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="CT14" s="2">
@@ -4618,25 +4653,25 @@
         <v>0</v>
       </c>
       <c r="CW14" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX14" s="9">
         <v>0</v>
       </c>
       <c r="CY14" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CZ14" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
       <c r="DA14" s="9">
         <v>0</v>
       </c>
       <c r="DB14" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -4783,83 +4818,83 @@
         <v>100</v>
       </c>
       <c r="AZ15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BA15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>114.95</v>
       </c>
       <c r="BB15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>24.512249999999998</v>
       </c>
       <c r="BC15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BD15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.94905000000000006</v>
       </c>
       <c r="BE15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>34.845999999999997</v>
       </c>
       <c r="BF15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="BH15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="BI15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.017499999999998</v>
       </c>
       <c r="BJ15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BK15" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>137.5</v>
       </c>
       <c r="BL15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>36.75</v>
       </c>
       <c r="BM15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="BN15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BO15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>56.990500000000004</v>
       </c>
       <c r="BP15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="BR15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="BS15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="BU15" s="2">
@@ -4881,22 +4916,22 @@
         <v>0</v>
       </c>
       <c r="CB15" s="6">
-        <f>B15</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CC15" s="6">
-        <f>C15+D15+E15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CD15" s="6">
         <v>0</v>
       </c>
       <c r="CE15" s="6">
-        <f>F15</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CF15" s="6">
-        <f>G15+H15+I15</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CG15" s="6">
@@ -4904,31 +4939,31 @@
       </c>
       <c r="CH15" s="6"/>
       <c r="CI15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>307.3</v>
       </c>
       <c r="CJ15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>398.2</v>
       </c>
       <c r="CK15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>191.3</v>
       </c>
       <c r="CL15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>443.3</v>
       </c>
       <c r="CM15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>654.29999999999995</v>
       </c>
       <c r="CN15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>269.5</v>
       </c>
       <c r="CP15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ15" s="2">
@@ -4938,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="CS15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT15" s="2">
@@ -4948,25 +4983,25 @@
         <v>0</v>
       </c>
       <c r="CW15" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX15" s="9">
         <v>0</v>
       </c>
       <c r="CY15" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
       <c r="CZ15" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA15" s="9">
         <v>0</v>
       </c>
       <c r="DB15" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -5113,83 +5148,83 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
       <c r="BA16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17.462499999999999</v>
       </c>
       <c r="BB16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
       <c r="BD16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>19.019000000000002</v>
       </c>
       <c r="BF16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BK16" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>69.987499999999997</v>
       </c>
       <c r="BL16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BN16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.8981000000000001</v>
       </c>
       <c r="BO16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BP16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="BR16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="BS16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU16" s="2">
@@ -5211,22 +5246,22 @@
         <v>0</v>
       </c>
       <c r="CB16" s="6">
-        <f>B16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="CC16" s="6">
-        <f>C16+D16+E16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CD16" s="6">
         <v>0</v>
       </c>
       <c r="CE16" s="6">
-        <f>F16</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CF16" s="6">
-        <f>G16+H16+I16</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CG16" s="6">
@@ -5234,31 +5269,31 @@
       </c>
       <c r="CH16" s="6"/>
       <c r="CI16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>134.80000000000001</v>
       </c>
       <c r="CJ16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>117.5</v>
       </c>
       <c r="CL16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>515.1</v>
       </c>
       <c r="CM16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>223</v>
       </c>
       <c r="CN16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>100.4</v>
       </c>
       <c r="CP16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ16" s="2">
@@ -5268,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="CS16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT16" s="2">
@@ -5278,25 +5313,25 @@
         <v>0</v>
       </c>
       <c r="CW16" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX16" s="9">
         <v>0</v>
       </c>
       <c r="CY16" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CZ16" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA16" s="9">
         <v>0</v>
       </c>
       <c r="DB16" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.2</v>
       </c>
     </row>
@@ -5443,83 +5478,83 @@
         <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BK17" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>69.987499999999997</v>
       </c>
       <c r="BL17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BN17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.8981000000000001</v>
       </c>
       <c r="BO17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6.3174999999999999</v>
       </c>
       <c r="BP17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="BR17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="BS17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU17" s="2">
@@ -5541,22 +5576,22 @@
         <v>0</v>
       </c>
       <c r="CB17" s="6">
-        <f>B17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="CC17" s="6">
-        <f>C17+D17+E17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CD17" s="6">
         <v>0</v>
       </c>
       <c r="CE17" s="6">
-        <f>F17</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CF17" s="6">
-        <f>G17+H17+I17</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CG17" s="6">
@@ -5564,31 +5599,31 @@
       </c>
       <c r="CH17" s="6"/>
       <c r="CI17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CJ17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>41.5</v>
       </c>
       <c r="CL17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>488.9</v>
       </c>
       <c r="CM17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>223</v>
       </c>
       <c r="CN17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>106.7</v>
       </c>
       <c r="CP17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ17" s="2">
@@ -5598,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="CS17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT17" s="2">
@@ -5608,25 +5643,25 @@
         <v>0</v>
       </c>
       <c r="CW17" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX17" s="9">
         <v>0</v>
       </c>
       <c r="CY17" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CZ17" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA17" s="9">
         <v>0</v>
       </c>
       <c r="DB17" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.2</v>
       </c>
     </row>
@@ -5773,83 +5808,83 @@
         <v>0</v>
       </c>
       <c r="AZ18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>67.512500000000003</v>
       </c>
       <c r="BB18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>33.993749999999999</v>
       </c>
       <c r="BC18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.94905000000000006</v>
       </c>
       <c r="BE18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BK18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>102.4375</v>
       </c>
       <c r="BL18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33.993749999999999</v>
       </c>
       <c r="BM18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BN18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BO18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BP18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BR18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="BS18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU18" s="2">
@@ -5871,22 +5906,22 @@
         <v>0</v>
       </c>
       <c r="CB18" s="6">
-        <f>B18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CC18" s="6">
-        <f>C18+D18+E18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CD18" s="6">
         <v>0</v>
       </c>
       <c r="CE18" s="6">
-        <f>F18</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CF18" s="6">
-        <f>G18+H18+I18</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="CG18" s="6">
@@ -5894,31 +5929,31 @@
       </c>
       <c r="CH18" s="6"/>
       <c r="CI18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>286.7</v>
       </c>
       <c r="CJ18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>42.5</v>
       </c>
       <c r="CL18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>422.9</v>
       </c>
       <c r="CM18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="CN18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>98.5</v>
       </c>
       <c r="CP18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ18" s="2">
@@ -5928,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="CS18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT18" s="2">
@@ -5938,25 +5973,25 @@
         <v>0</v>
       </c>
       <c r="CW18" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>75</v>
       </c>
       <c r="CX18" s="9">
         <v>0</v>
       </c>
       <c r="CY18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
       <c r="CZ18" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
       <c r="DA18" s="9">
         <v>0</v>
       </c>
       <c r="DB18" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6103,120 +6138,120 @@
         <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>52.524999999999999</v>
       </c>
       <c r="BB19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
       <c r="BD19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>19.019000000000002</v>
       </c>
       <c r="BF19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>14.25</v>
       </c>
       <c r="BK19" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>40.012500000000003</v>
       </c>
       <c r="BL19" s="2">
+        <f t="shared" si="6"/>
+        <v>17.015249999999998</v>
+      </c>
+      <c r="BM19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BN19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BO19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BP19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BR19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BS19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB19" s="6">
         <f t="shared" si="1"/>
-        <v>17.015249999999998</v>
-      </c>
-      <c r="BM19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BO19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BP19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BR19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY19" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ19" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB19" s="6">
-        <f>B19</f>
         <v>1</v>
       </c>
       <c r="CC19" s="6">
-        <f>C19+D19+E19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CD19" s="6">
         <v>0</v>
       </c>
       <c r="CE19" s="6">
-        <f>F19</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="CF19" s="6">
-        <f>G19+H19+I19</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="CG19" s="6">
@@ -6224,31 +6259,31 @@
       </c>
       <c r="CH19" s="6"/>
       <c r="CI19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>271.2</v>
       </c>
       <c r="CJ19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
       <c r="CL19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>174.4</v>
       </c>
       <c r="CM19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="CN19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>55.8</v>
       </c>
       <c r="CP19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ19" s="2">
@@ -6258,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="CS19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT19" s="2">
@@ -6268,25 +6303,25 @@
         <v>0</v>
       </c>
       <c r="CW19" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX19" s="9">
         <v>0</v>
       </c>
       <c r="CY19" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CZ19" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA19" s="9">
         <v>0</v>
       </c>
       <c r="DB19" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6433,120 +6468,120 @@
         <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK20" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BL20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BM20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BN20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BO20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BP20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BR20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BS20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BM20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BO20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BP20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BR20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU20" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV20" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW20" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX20" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY20" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ20" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB20" s="6">
-        <f>B20</f>
-        <v>0</v>
-      </c>
       <c r="CC20" s="6">
-        <f>C20+D20+E20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CD20" s="6">
         <v>0</v>
       </c>
       <c r="CE20" s="6">
-        <f>F20</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CF20" s="6">
-        <f>G20+H20+I20</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="CG20" s="6">
@@ -6554,31 +6589,31 @@
       </c>
       <c r="CH20" s="6"/>
       <c r="CI20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CJ20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>41.5</v>
       </c>
       <c r="CL20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CM20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="CN20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>41.5</v>
       </c>
       <c r="CP20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ20" s="2">
@@ -6588,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="CS20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT20" s="2">
@@ -6598,25 +6633,25 @@
         <v>0</v>
       </c>
       <c r="CW20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX20" s="9">
         <v>0</v>
       </c>
       <c r="CY20" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CZ20" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA20" s="9">
         <v>0</v>
       </c>
       <c r="DB20" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6763,120 +6798,120 @@
         <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK21" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BL21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BM21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BN21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BO21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BP21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BR21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BS21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BU21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BM21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BO21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BP21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BR21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY21" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ21" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB21" s="6">
-        <f>B21</f>
-        <v>0</v>
-      </c>
       <c r="CC21" s="6">
-        <f>C21+D21+E21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CD21" s="6">
         <v>0</v>
       </c>
       <c r="CE21" s="6">
-        <f>F21</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CF21" s="6">
-        <f>G21+H21+I21</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="CG21" s="6">
@@ -6884,31 +6919,31 @@
       </c>
       <c r="CH21" s="6"/>
       <c r="CI21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CJ21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>41.5</v>
       </c>
       <c r="CL21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CM21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="CN21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>41.5</v>
       </c>
       <c r="CP21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ21" s="2">
@@ -6918,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="CS21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT21" s="2">
@@ -6928,25 +6963,25 @@
         <v>0</v>
       </c>
       <c r="CW21" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX21" s="9">
         <v>0</v>
       </c>
       <c r="CY21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CZ21" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA21" s="9">
         <v>0</v>
       </c>
       <c r="DB21" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -7093,83 +7128,83 @@
         <v>0</v>
       </c>
       <c r="AZ22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BA22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.0625</v>
       </c>
       <c r="BB22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>33.993749999999999</v>
       </c>
       <c r="BC22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.94905000000000006</v>
       </c>
       <c r="BE22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.3174999999999999</v>
       </c>
       <c r="BF22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK22" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>69.987499999999997</v>
       </c>
       <c r="BL22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="BN22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.8471499999999996</v>
       </c>
       <c r="BO22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>30.058000000000003</v>
       </c>
       <c r="BP22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27.013500000000001</v>
       </c>
       <c r="BQ22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="BR22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU22" s="2">
@@ -7191,22 +7226,22 @@
         <v>0</v>
       </c>
       <c r="CB22" s="6">
-        <f>B22</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CC22" s="6">
-        <f>C22+D22+E22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CD22" s="6">
         <v>0</v>
       </c>
       <c r="CE22" s="6">
-        <f>F22</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CF22" s="6">
-        <f>G22+H22+I22</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="CG22" s="6">
@@ -7214,31 +7249,31 @@
       </c>
       <c r="CH22" s="6"/>
       <c r="CI22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>236.9</v>
       </c>
       <c r="CJ22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>105.8</v>
       </c>
       <c r="CL22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>237.8</v>
       </c>
       <c r="CM22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="CN22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>158.4</v>
       </c>
       <c r="CP22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ22" s="2">
@@ -7248,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="CS22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT22" s="2">
@@ -7258,25 +7293,25 @@
         <v>0</v>
       </c>
       <c r="CW22" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX22" s="9">
         <v>0</v>
       </c>
       <c r="CY22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
       <c r="CZ22" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA22" s="9">
         <v>0</v>
       </c>
       <c r="DB22" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
@@ -7423,83 +7458,83 @@
         <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BA23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>69.987499999999997</v>
       </c>
       <c r="BB23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.94905000000000006</v>
       </c>
       <c r="BE23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.3174999999999999</v>
       </c>
       <c r="BF23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK23" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>69.987499999999997</v>
       </c>
       <c r="BL23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33.993749999999999</v>
       </c>
       <c r="BM23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28.5</v>
       </c>
       <c r="BN23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.94905000000000006</v>
       </c>
       <c r="BO23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33.25</v>
       </c>
       <c r="BP23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>13.486499999999999</v>
       </c>
       <c r="BQ23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="BR23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU23" s="2">
@@ -7521,22 +7556,22 @@
         <v>75</v>
       </c>
       <c r="CB23" s="6">
-        <f>B23</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="CC23" s="6">
-        <f>C23+D23+E23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CD23" s="6">
         <v>0</v>
       </c>
       <c r="CE23" s="6">
-        <f>F23</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="CF23" s="6">
-        <f>G23+H23+I23</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="CG23" s="6">
@@ -7544,31 +7579,31 @@
       </c>
       <c r="CH23" s="6"/>
       <c r="CI23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>288.60000000000002</v>
       </c>
       <c r="CJ23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="CK23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>105.8</v>
       </c>
       <c r="CL23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>407.8</v>
       </c>
       <c r="CM23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="CN23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>171.3</v>
       </c>
       <c r="CP23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ23" s="2">
@@ -7578,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="CS23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="CT23" s="2">
@@ -7588,25 +7623,25 @@
         <v>0</v>
       </c>
       <c r="CW23" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX23" s="9">
         <v>0</v>
       </c>
       <c r="CY23" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
       <c r="CZ23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="DA23" s="9">
         <v>0</v>
       </c>
       <c r="DB23" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>75.8</v>
       </c>
     </row>
@@ -7753,83 +7788,83 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BA24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>69.987499999999997</v>
       </c>
       <c r="BB24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>33.993749999999999</v>
       </c>
       <c r="BC24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.94905000000000006</v>
       </c>
       <c r="BE24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12.635</v>
       </c>
       <c r="BF24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="BI24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
       <c r="BK24" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>80.025000000000006</v>
       </c>
       <c r="BL24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33.993749999999999</v>
       </c>
       <c r="BM24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BN24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BO24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12.635</v>
       </c>
       <c r="BP24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="BR24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU24" s="2">
@@ -7851,22 +7886,22 @@
         <v>25</v>
       </c>
       <c r="CB24" s="6">
-        <f>B24</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="CC24" s="6">
-        <f>C24+D24+E24</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="CD24" s="6">
         <v>0</v>
       </c>
       <c r="CE24" s="6">
-        <f>F24</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="CF24" s="6">
-        <f>G24+H24+I24</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="CG24" s="6">
@@ -7874,31 +7909,31 @@
       </c>
       <c r="CH24" s="6"/>
       <c r="CI24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>407.8</v>
       </c>
       <c r="CJ24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="CK24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>112.1</v>
       </c>
       <c r="CL24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>383.1</v>
       </c>
       <c r="CM24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>55.5</v>
       </c>
       <c r="CN24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>82.7</v>
       </c>
       <c r="CP24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="CQ24" s="2">
@@ -7908,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="CS24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT24" s="2">
@@ -7918,25 +7953,25 @@
         <v>0</v>
       </c>
       <c r="CW24" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="CX24" s="9">
         <v>0</v>
       </c>
       <c r="CY24" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
       <c r="CZ24" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="DA24" s="9">
         <v>0</v>
       </c>
       <c r="DB24" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
     </row>
@@ -8083,83 +8118,83 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BA25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>80.025000000000006</v>
       </c>
       <c r="BB25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>33.993749999999999</v>
       </c>
       <c r="BC25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.94905000000000006</v>
       </c>
       <c r="BE25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>19.019000000000002</v>
       </c>
       <c r="BF25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="BI25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BK25" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>124.9875</v>
       </c>
       <c r="BL25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>33.993749999999999</v>
       </c>
       <c r="BM25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BN25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.8471499999999996</v>
       </c>
       <c r="BO25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BP25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BR25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU25" s="2">
@@ -8181,22 +8216,22 @@
         <v>0</v>
       </c>
       <c r="CB25" s="6">
-        <f>B25</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CC25" s="6">
-        <f>C25+D25+E25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="CD25" s="6">
         <v>0</v>
       </c>
       <c r="CE25" s="6">
-        <f>F25</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CF25" s="6">
-        <f>G25+H25+I25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="CG25" s="6">
@@ -8204,31 +8239,31 @@
       </c>
       <c r="CH25" s="6"/>
       <c r="CI25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>383.1</v>
       </c>
       <c r="CJ25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="CK25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>118.5</v>
       </c>
       <c r="CL25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>326.8</v>
       </c>
       <c r="CM25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="CN25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>101.4</v>
       </c>
       <c r="CP25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ25" s="2">
@@ -8238,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="CS25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT25" s="2">
@@ -8248,25 +8283,25 @@
         <v>0</v>
       </c>
       <c r="CW25" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="CX25" s="9">
         <v>0</v>
       </c>
       <c r="CY25" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
       <c r="CZ25" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA25" s="9">
         <v>0</v>
       </c>
       <c r="DB25" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
@@ -8413,83 +8448,83 @@
         <v>0</v>
       </c>
       <c r="AZ26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BA26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>120.03749999999999</v>
       </c>
       <c r="BB26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>33.993749999999999</v>
       </c>
       <c r="BC26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.94905000000000006</v>
       </c>
       <c r="BE26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>14.231</v>
       </c>
       <c r="BF26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>13.486499999999999</v>
       </c>
       <c r="BG26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="BH26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BK26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>69.987499999999997</v>
       </c>
       <c r="BL26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BN26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.94905000000000006</v>
       </c>
       <c r="BO26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BP26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="BR26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="BS26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU26" s="2">
@@ -8511,22 +8546,22 @@
         <v>0</v>
       </c>
       <c r="CB26" s="6">
-        <f>B26</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CC26" s="6">
-        <f>C26+D26+E26</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="CD26" s="6">
         <v>0</v>
       </c>
       <c r="CE26" s="6">
-        <f>F26</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CF26" s="6">
-        <f>G26+H26+I26</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CG26" s="6">
@@ -8534,31 +8569,31 @@
       </c>
       <c r="CH26" s="6"/>
       <c r="CI26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>423.1</v>
       </c>
       <c r="CJ26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>115.5</v>
       </c>
       <c r="CK26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>155.69999999999999</v>
       </c>
       <c r="CL26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>339.1</v>
       </c>
       <c r="CM26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>270</v>
       </c>
       <c r="CN26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>99.5</v>
       </c>
       <c r="CP26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ26" s="2">
@@ -8568,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="CS26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT26" s="2">
@@ -8578,25 +8613,25 @@
         <v>0</v>
       </c>
       <c r="CW26" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX26" s="9">
         <v>0</v>
       </c>
       <c r="CY26" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
       <c r="CZ26" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA26" s="9">
         <v>0</v>
       </c>
       <c r="DB26" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.8</v>
       </c>
     </row>
@@ -8743,83 +8778,83 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BA27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>69.987499999999997</v>
       </c>
       <c r="BB27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="BD27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.8471499999999996</v>
       </c>
       <c r="BE27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="BF27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.013500000000001</v>
       </c>
       <c r="BG27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
       <c r="BH27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="BI27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BK27" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>69.987499999999997</v>
       </c>
       <c r="BL27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28.5</v>
       </c>
       <c r="BN27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BO27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>47.481000000000002</v>
       </c>
       <c r="BP27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27.013500000000001</v>
       </c>
       <c r="BQ27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
       <c r="BR27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="BS27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU27" s="2">
@@ -8841,22 +8876,22 @@
         <v>25</v>
       </c>
       <c r="CB27" s="6">
-        <f>B27</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="CC27" s="6">
-        <f>C27+D27+E27</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="CD27" s="6">
         <v>0</v>
       </c>
       <c r="CE27" s="6">
-        <f>F27</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CF27" s="6">
-        <f>G27+H27+I27</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CG27" s="6">
@@ -8864,31 +8899,31 @@
       </c>
       <c r="CH27" s="6"/>
       <c r="CI27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>339.1</v>
       </c>
       <c r="CJ27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>103</v>
       </c>
       <c r="CK27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>416.1</v>
       </c>
       <c r="CL27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>339.1</v>
       </c>
       <c r="CM27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>168.8</v>
       </c>
       <c r="CN27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>255.1</v>
       </c>
       <c r="CP27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ27" s="2">
@@ -8898,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="CS27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT27" s="2">
@@ -8908,25 +8943,25 @@
         <v>0</v>
       </c>
       <c r="CW27" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX27" s="9">
         <v>0</v>
       </c>
       <c r="CY27" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
       <c r="CZ27" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA27" s="9">
         <v>0</v>
       </c>
       <c r="DB27" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
     </row>
@@ -9073,83 +9108,83 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BA28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>69.987499999999997</v>
       </c>
       <c r="BB28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="BD28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>61.778500000000001</v>
       </c>
       <c r="BF28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>40.5</v>
       </c>
       <c r="BG28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="BH28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="BI28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="BK28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>69.987499999999997</v>
       </c>
       <c r="BL28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28.5</v>
       </c>
       <c r="BN28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.8471499999999996</v>
       </c>
       <c r="BO28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>61.778500000000001</v>
       </c>
       <c r="BP28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>40.5</v>
       </c>
       <c r="BQ28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="BR28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="BS28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU28" s="2">
@@ -9171,22 +9206,22 @@
         <v>25</v>
       </c>
       <c r="CB28" s="6">
-        <f>B28</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CC28" s="6">
-        <f>C28+D28+E28</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CD28" s="6">
         <v>0</v>
       </c>
       <c r="CE28" s="6">
-        <f>F28</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="CF28" s="6">
-        <f>G28+H28+I28</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="CG28" s="6">
@@ -9194,31 +9229,31 @@
       </c>
       <c r="CH28" s="6"/>
       <c r="CI28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>312.89999999999998</v>
       </c>
       <c r="CJ28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>258.3</v>
       </c>
       <c r="CK28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>314.8</v>
       </c>
       <c r="CL28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>312.89999999999998</v>
       </c>
       <c r="CM28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>270</v>
       </c>
       <c r="CN28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>232.1</v>
       </c>
       <c r="CP28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ28" s="2">
@@ -9228,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="CS28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT28" s="2">
@@ -9238,25 +9273,25 @@
         <v>0</v>
       </c>
       <c r="CW28" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX28" s="9">
         <v>0</v>
       </c>
       <c r="CY28" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="CZ28" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA28" s="9">
         <v>0</v>
       </c>
       <c r="DB28" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
     </row>
@@ -9403,83 +9438,83 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
       <c r="BA29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>35.0625</v>
       </c>
       <c r="BB29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>28.5</v>
       </c>
       <c r="BD29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.7962000000000002</v>
       </c>
       <c r="BE29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>19.019000000000002</v>
       </c>
       <c r="BF29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="BH29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
       <c r="BI29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>14.25</v>
       </c>
       <c r="BK29" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BL29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>28.5</v>
       </c>
       <c r="BN29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.94905000000000006</v>
       </c>
       <c r="BO29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>19.019000000000002</v>
       </c>
       <c r="BP29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BR29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU29" s="2">
@@ -9501,22 +9536,22 @@
         <v>100</v>
       </c>
       <c r="CB29" s="6">
-        <f>B29</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="CC29" s="6">
-        <f>C29+D29+E29</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="CD29" s="6">
         <v>0</v>
       </c>
       <c r="CE29" s="6">
-        <f>F29</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CF29" s="6">
-        <f>G29+H29+I29</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="CG29" s="6">
@@ -9524,31 +9559,31 @@
       </c>
       <c r="CH29" s="6"/>
       <c r="CI29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>278</v>
       </c>
       <c r="CJ29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>137.30000000000001</v>
       </c>
       <c r="CK29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>174.9</v>
       </c>
       <c r="CL29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>66.900000000000006</v>
       </c>
       <c r="CM29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="CN29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>157.80000000000001</v>
       </c>
       <c r="CP29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CQ29" s="2">
@@ -9558,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="CS29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CT29" s="2">
@@ -9568,25 +9603,25 @@
         <v>0</v>
       </c>
       <c r="CW29" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="CX29" s="9">
         <v>0</v>
       </c>
       <c r="CY29" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>102.8</v>
       </c>
       <c r="CZ29" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="DA29" s="9">
         <v>0</v>
       </c>
       <c r="DB29" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>100.8</v>
       </c>
     </row>
@@ -9657,20 +9692,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66C2BEC-7ED7-4465-8F69-DCEE4FA3355B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D2" t="s">
         <v>34</v>
       </c>
@@ -9681,12 +9716,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -9704,8 +9739,11 @@
         <f>D4-E4</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -9723,10 +9761,43 @@
         <f>D5-E5</f>
         <v>40</v>
       </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B8">
+        <v>2434.5295999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <f>F4/B8</f>
+        <v>2.7931473907731499E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9">
+        <f>F8*3600</f>
+        <v>100.5533060678334</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9734,8 +9805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3475FE05-5BD0-4CF0-AAB9-DB3B0C5F8528}">
   <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="H2:J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
